--- a/GVI & WUB/GVI LF1/Gewinn & Verlustverteilung/Marie_GewinnVerlustAufteilung.xlsx
+++ b/GVI & WUB/GVI LF1/Gewinn & Verlustverteilung/Marie_GewinnVerlustAufteilung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEUF\Documents\Schule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dstemmler\Dokumente\GitHub\Danger_Gang_GVI\GVI &amp; WUB\GVI LF1\Gewinn &amp; Verlustverteilung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE77693-1FD6-42BC-A729-5AC47C7BD39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387D495D-BA15-49AA-ACA6-257C0BA521DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{D92D6955-6253-487E-896C-0F947CDCEADE}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{D92D6955-6253-487E-896C-0F947CDCEADE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -75,15 +75,9 @@
     <t>Restgewinn nach Anteilen</t>
   </si>
   <si>
-    <t>4% des  Gewinns</t>
-  </si>
-  <si>
     <t>Gesamtgewinn pro Person</t>
   </si>
   <si>
-    <t>4 % des Verlustes</t>
-  </si>
-  <si>
     <t>Restverlust nach Anteil</t>
   </si>
   <si>
@@ -94,6 +88,12 @@
   </si>
   <si>
     <t>AG</t>
+  </si>
+  <si>
+    <t>4% des  Eigenkapital</t>
+  </si>
+  <si>
+    <t>4 % des Eigenkapital</t>
   </si>
 </sst>
 </file>
@@ -117,24 +117,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -149,15 +137,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -472,23 +457,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C9A33F-FB13-449C-9EB9-8C295A3B304A}">
-  <dimension ref="D12:I37"/>
+  <dimension ref="D11:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.68359375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.68359375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D12" s="7" t="s">
-        <v>18</v>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -496,17 +486,17 @@
       <c r="F12" t="s">
         <v>5</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" t="s">
         <v>1</v>
       </c>
@@ -516,19 +506,19 @@
       <c r="F13">
         <v>23.922000000000001</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <f>$G$16*F13/100</f>
         <v>8133.48</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="2">
         <v>8133.48</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <f>E13+H13</f>
         <v>34829.479999999996</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" t="s">
         <v>2</v>
       </c>
@@ -538,19 +528,19 @@
       <c r="F14">
         <v>22.312629999999999</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <f t="shared" ref="G14:G15" si="0">$G$16*F14/100</f>
         <v>7586.2941999999994</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="2">
         <v>7586.3</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <f t="shared" ref="I14:I15" si="1">E14+H14</f>
         <v>32486.3</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" t="s">
         <v>3</v>
       </c>
@@ -560,19 +550,19 @@
       <c r="F15">
         <v>53.765369999999997</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <f t="shared" si="0"/>
         <v>18280.2258</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="2">
         <v>18280.22</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <f t="shared" si="1"/>
         <v>78280.22</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" t="s">
         <v>0</v>
       </c>
@@ -584,36 +574,41 @@
         <f>SUM(F13:F15)</f>
         <v>100</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>34000</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <f>SUM(H13:H15)</f>
         <v>34000</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <f>SUM(I13:I15)</f>
         <v>145596</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>5</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" t="s">
         <v>1</v>
       </c>
@@ -623,19 +618,19 @@
       <c r="F19">
         <v>23.922000000000001</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="2">
         <f t="shared" ref="G19:G20" si="2">$G$22*F19/100</f>
         <v>1435.32</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <v>1435.32</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <f>E13-H19</f>
         <v>25260.68</v>
       </c>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" t="s">
         <v>2</v>
       </c>
@@ -645,19 +640,19 @@
       <c r="F20">
         <v>22.312629999999999</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="2">
         <f t="shared" si="2"/>
         <v>1338.7578000000001</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="2">
         <v>1338.76</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <f t="shared" ref="I20:I21" si="3">E14-H20</f>
         <v>23561.24</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" t="s">
         <v>3</v>
       </c>
@@ -667,19 +662,19 @@
       <c r="F21">
         <v>53.765369999999997</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="2">
         <f>$G$22*F21/100</f>
         <v>3225.9221999999995</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2">
         <v>3225.92</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <f t="shared" si="3"/>
         <v>56774.080000000002</v>
       </c>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" t="s">
         <v>0</v>
       </c>
@@ -691,21 +686,41 @@
         <f>SUM(F19:F21)</f>
         <v>100</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>6000</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="2">
         <f>SUM(H19:H21)</f>
         <v>6000</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="2">
         <f>SUM(I19:I21)</f>
         <v>105596</v>
       </c>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D27" s="7" t="s">
-        <v>19</v>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
@@ -713,17 +728,17 @@
       <c r="F27" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D28" t="s">
         <v>1</v>
       </c>
@@ -733,20 +748,20 @@
       <c r="F28">
         <v>23.922000000000001</v>
       </c>
-      <c r="G28">
-        <f>34000*0.04</f>
-        <v>1360</v>
-      </c>
-      <c r="H28" s="2">
+      <c r="G28" s="2">
+        <f>E28*0.04</f>
+        <v>1067.8399999999999</v>
+      </c>
+      <c r="H28" s="4">
         <f>(34000-$G$31)*F28/100</f>
-        <v>7157.4624000000003</v>
-      </c>
-      <c r="I28" s="3">
+        <v>7065.6401951999997</v>
+      </c>
+      <c r="I28" s="4">
         <f>G28+H28</f>
-        <v>8517.4624000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.3">
+        <v>8133.4801951999998</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" t="s">
         <v>2</v>
       </c>
@@ -756,20 +771,20 @@
       <c r="F29">
         <v>22.312629999999999</v>
       </c>
-      <c r="G29">
-        <f t="shared" ref="G29:G30" si="4">34000*0.04</f>
-        <v>1360</v>
-      </c>
-      <c r="H29" s="2">
+      <c r="G29" s="2">
+        <f t="shared" ref="G29:G30" si="4">E29*0.04</f>
+        <v>996</v>
+      </c>
+      <c r="H29" s="4">
         <f t="shared" ref="H29:H30" si="5">(34000-$G$31)*F29/100</f>
-        <v>6675.9388959999997</v>
-      </c>
-      <c r="I29" s="3">
+        <v>6590.2940970079999</v>
+      </c>
+      <c r="I29" s="4">
         <f t="shared" ref="I29:I30" si="6">G29+H29</f>
-        <v>8035.9388959999997</v>
-      </c>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.3">
+        <v>7586.2940970079999</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" t="s">
         <v>3</v>
       </c>
@@ -779,20 +794,20 @@
       <c r="F30">
         <v>53.765369999999997</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="2">
         <f t="shared" si="4"/>
-        <v>1360</v>
-      </c>
-      <c r="H30" s="2">
+        <v>2400</v>
+      </c>
+      <c r="H30" s="4">
         <f t="shared" si="5"/>
-        <v>16086.598703999998</v>
+        <v>15880.225707792</v>
       </c>
       <c r="I30" s="4">
         <f t="shared" si="6"/>
-        <v>17446.598703999996</v>
-      </c>
-    </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.3">
+        <v>18280.225707792</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D31" t="s">
         <v>0</v>
       </c>
@@ -804,37 +819,42 @@
         <f>SUM(F28:F30)</f>
         <v>100</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <f>SUM(G28:G30)</f>
-        <v>4080</v>
-      </c>
-      <c r="H31">
+        <v>4463.84</v>
+      </c>
+      <c r="H31" s="2">
         <f>SUM(H28:H30)</f>
-        <v>29920</v>
-      </c>
-      <c r="I31">
+        <v>29536.16</v>
+      </c>
+      <c r="I31" s="2">
         <f>SUM(I28:I30)</f>
         <v>34000</v>
       </c>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" t="s">
         <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>5</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D34" t="s">
         <v>1</v>
       </c>
@@ -844,20 +864,20 @@
       <c r="F34">
         <v>23.922000000000001</v>
       </c>
-      <c r="G34">
-        <f>6000*0.04</f>
-        <v>240</v>
-      </c>
-      <c r="H34">
+      <c r="G34" s="2">
+        <f>E34*0.04</f>
+        <v>1067.8399999999999</v>
+      </c>
+      <c r="H34" s="2">
         <f>(6000-$G$37)*F34/100</f>
-        <v>1263.0816</v>
+        <v>367.48019519999997</v>
       </c>
       <c r="I34" s="4">
         <f>G34+H34</f>
-        <v>1503.0816</v>
-      </c>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.3">
+        <v>1435.3201951999999</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D35" t="s">
         <v>2</v>
       </c>
@@ -867,20 +887,20 @@
       <c r="F35">
         <v>22.312629999999999</v>
       </c>
-      <c r="G35">
-        <f t="shared" ref="G35:G36" si="7">6000*0.04</f>
-        <v>240</v>
-      </c>
-      <c r="H35">
+      <c r="G35" s="2">
+        <f t="shared" ref="G35:G36" si="7">E35*0.04</f>
+        <v>996</v>
+      </c>
+      <c r="H35" s="2">
         <f t="shared" ref="H35:H36" si="8">(6000-$G$37)*F35/100</f>
-        <v>1178.1068639999999</v>
+        <v>342.75769700799998</v>
       </c>
       <c r="I35" s="4">
         <f t="shared" ref="I35:I37" si="9">G35+H35</f>
-        <v>1418.1068639999999</v>
-      </c>
-    </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.3">
+        <v>1338.7576970079999</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D36" t="s">
         <v>3</v>
       </c>
@@ -890,20 +910,20 @@
       <c r="F36">
         <v>53.765369999999997</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <f t="shared" si="7"/>
-        <v>240</v>
-      </c>
-      <c r="H36">
+        <v>2400</v>
+      </c>
+      <c r="H36" s="2">
         <f t="shared" si="8"/>
-        <v>2838.8115359999997</v>
-      </c>
-      <c r="I36" s="3">
+        <v>825.92210779199991</v>
+      </c>
+      <c r="I36" s="4">
         <f t="shared" si="9"/>
-        <v>3078.8115359999997</v>
-      </c>
-    </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.3">
+        <v>3225.9221077920001</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D37" t="s">
         <v>0</v>
       </c>
@@ -915,18 +935,23 @@
         <f>SUM(F34:F36)</f>
         <v>100</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="2">
         <f>SUM(G34:G36)</f>
-        <v>720</v>
-      </c>
-      <c r="H37">
+        <v>4463.84</v>
+      </c>
+      <c r="H37" s="2">
         <f>SUM(H34:H36)</f>
-        <v>5280</v>
-      </c>
-      <c r="I37">
+        <v>1536.1599999999999</v>
+      </c>
+      <c r="I37" s="2">
         <f t="shared" si="9"/>
         <v>6000</v>
       </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/GVI & WUB/GVI LF1/Gewinn & Verlustverteilung/Marie_GewinnVerlustAufteilung.xlsx
+++ b/GVI & WUB/GVI LF1/Gewinn & Verlustverteilung/Marie_GewinnVerlustAufteilung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dstemmler\Dokumente\GitHub\Danger_Gang_GVI\GVI &amp; WUB\GVI LF1\Gewinn &amp; Verlustverteilung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387D495D-BA15-49AA-ACA6-257C0BA521DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE855FD9-775A-427A-9417-21366F0D2E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{D92D6955-6253-487E-896C-0F947CDCEADE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>Gesamt</t>
   </si>
@@ -94,13 +94,22 @@
   </si>
   <si>
     <t>4 % des Eigenkapital</t>
+  </si>
+  <si>
+    <t>OHG</t>
+  </si>
+  <si>
+    <t>Differenz</t>
+  </si>
+  <si>
+    <t>Diff %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +119,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -134,17 +150,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -457,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C9A33F-FB13-449C-9EB9-8C295A3B304A}">
-  <dimension ref="D11:I38"/>
+  <dimension ref="D12:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -471,11 +489,6 @@
     <col min="9" max="9" width="25.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" s="1" t="s">
         <v>16</v>
@@ -486,13 +499,13 @@
       <c r="F12" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -506,14 +519,14 @@
       <c r="F13">
         <v>23.922000000000001</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13">
         <f>$G$16*F13/100</f>
         <v>8133.48</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13">
         <v>8133.48</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13">
         <f>E13+H13</f>
         <v>34829.479999999996</v>
       </c>
@@ -528,14 +541,14 @@
       <c r="F14">
         <v>22.312629999999999</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14">
         <f t="shared" ref="G14:G15" si="0">$G$16*F14/100</f>
         <v>7586.2941999999994</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14">
         <v>7586.3</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14">
         <f t="shared" ref="I14:I15" si="1">E14+H14</f>
         <v>32486.3</v>
       </c>
@@ -550,14 +563,14 @@
       <c r="F15">
         <v>53.765369999999997</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15">
         <f t="shared" si="0"/>
         <v>18280.2258</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15">
         <v>18280.22</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15">
         <f t="shared" si="1"/>
         <v>78280.22</v>
       </c>
@@ -574,22 +587,17 @@
         <f>SUM(F13:F15)</f>
         <v>100</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16">
         <v>34000</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16">
         <f>SUM(H13:H15)</f>
         <v>34000</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16">
         <f>SUM(I13:I15)</f>
         <v>145596</v>
       </c>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" t="s">
@@ -598,13 +606,13 @@
       <c r="F18" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" t="s">
         <v>10</v>
       </c>
     </row>
@@ -618,14 +626,14 @@
       <c r="F19">
         <v>23.922000000000001</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19">
         <f t="shared" ref="G19:G20" si="2">$G$22*F19/100</f>
         <v>1435.32</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19">
         <v>1435.32</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19">
         <f>E13-H19</f>
         <v>25260.68</v>
       </c>
@@ -640,14 +648,14 @@
       <c r="F20">
         <v>22.312629999999999</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20">
         <f t="shared" si="2"/>
         <v>1338.7578000000001</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20">
         <v>1338.76</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20">
         <f t="shared" ref="I20:I21" si="3">E14-H20</f>
         <v>23561.24</v>
       </c>
@@ -662,14 +670,14 @@
       <c r="F21">
         <v>53.765369999999997</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21">
         <f>$G$22*F21/100</f>
         <v>3225.9221999999995</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21">
         <v>3225.92</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21">
         <f t="shared" si="3"/>
         <v>56774.080000000002</v>
       </c>
@@ -686,37 +694,17 @@
         <f>SUM(F19:F21)</f>
         <v>100</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22">
         <v>6000</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22">
         <f>SUM(H19:H21)</f>
         <v>6000</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22">
         <f>SUM(I19:I21)</f>
         <v>105596</v>
       </c>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D27" s="1" t="s">
@@ -728,13 +716,13 @@
       <c r="F27" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -748,15 +736,15 @@
       <c r="F28">
         <v>23.922000000000001</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28">
         <f>E28*0.04</f>
         <v>1067.8399999999999</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <f>(34000-$G$31)*F28/100</f>
         <v>7065.6401951999997</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="3">
         <f>G28+H28</f>
         <v>8133.4801951999998</v>
       </c>
@@ -771,15 +759,15 @@
       <c r="F29">
         <v>22.312629999999999</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29">
         <f t="shared" ref="G29:G30" si="4">E29*0.04</f>
         <v>996</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <f t="shared" ref="H29:H30" si="5">(34000-$G$31)*F29/100</f>
         <v>6590.2940970079999</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="3">
         <f t="shared" ref="I29:I30" si="6">G29+H29</f>
         <v>7586.2940970079999</v>
       </c>
@@ -794,15 +782,15 @@
       <c r="F30">
         <v>53.765369999999997</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30">
         <f t="shared" si="4"/>
         <v>2400</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <f t="shared" si="5"/>
         <v>15880.225707792</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="3">
         <f t="shared" si="6"/>
         <v>18280.225707792</v>
       </c>
@@ -819,23 +807,18 @@
         <f>SUM(F28:F30)</f>
         <v>100</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31">
         <f>SUM(G28:G30)</f>
         <v>4463.84</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31">
         <f>SUM(H28:H30)</f>
         <v>29536.16</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31">
         <f>SUM(I28:I30)</f>
         <v>34000</v>
       </c>
-    </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" t="s">
@@ -844,13 +827,13 @@
       <c r="F33" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" t="s">
         <v>15</v>
       </c>
     </row>
@@ -864,15 +847,15 @@
       <c r="F34">
         <v>23.922000000000001</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34">
         <f>E34*0.04</f>
         <v>1067.8399999999999</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34">
         <f>(6000-$G$37)*F34/100</f>
         <v>367.48019519999997</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="3">
         <f>G34+H34</f>
         <v>1435.3201951999999</v>
       </c>
@@ -887,15 +870,15 @@
       <c r="F35">
         <v>22.312629999999999</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35">
         <f t="shared" ref="G35:G36" si="7">E35*0.04</f>
         <v>996</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35">
         <f t="shared" ref="H35:H36" si="8">(6000-$G$37)*F35/100</f>
         <v>342.75769700799998</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="3">
         <f t="shared" ref="I35:I37" si="9">G35+H35</f>
         <v>1338.7576970079999</v>
       </c>
@@ -910,15 +893,15 @@
       <c r="F36">
         <v>53.765369999999997</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36">
         <f t="shared" si="7"/>
         <v>2400</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36">
         <f t="shared" si="8"/>
         <v>825.92210779199991</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="3">
         <f t="shared" si="9"/>
         <v>3225.9221077920001</v>
       </c>
@@ -935,23 +918,66 @@
         <f>SUM(F34:F36)</f>
         <v>100</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37">
         <f>SUM(G34:G36)</f>
         <v>4463.84</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37">
         <f>SUM(H34:H36)</f>
         <v>1536.1599999999999</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37">
         <f t="shared" si="9"/>
         <v>6000</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41">
+        <v>8134.16</v>
+      </c>
+      <c r="H41">
+        <v>1435.44</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42">
+        <v>10913.31</v>
+      </c>
+      <c r="H42">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43">
+        <f>G42-G41</f>
+        <v>2779.1499999999996</v>
+      </c>
+      <c r="H43">
+        <f>H42-H41</f>
+        <v>564.55999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="4">
+        <f>G41/G42</f>
+        <v>0.74534307190027593</v>
+      </c>
+      <c r="H44" s="4">
+        <f>H42/H41</f>
+        <v>1.3933010087499302</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/GVI & WUB/GVI LF1/Gewinn & Verlustverteilung/Marie_GewinnVerlustAufteilung.xlsx
+++ b/GVI & WUB/GVI LF1/Gewinn & Verlustverteilung/Marie_GewinnVerlustAufteilung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dstemmler\Dokumente\GitHub\Danger_Gang_GVI\GVI &amp; WUB\GVI LF1\Gewinn &amp; Verlustverteilung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE855FD9-775A-427A-9417-21366F0D2E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF37B114-3A6F-48B3-A024-DC86FAA19499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{D92D6955-6253-487E-896C-0F947CDCEADE}"/>
   </bookViews>
@@ -475,18 +475,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C9A33F-FB13-449C-9EB9-8C295A3B304A}">
-  <dimension ref="D12:I44"/>
+  <dimension ref="A12:XFD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="D12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="5" max="5" width="16.68359375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5234375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.68359375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1015625" customWidth="1"/>
+    <col min="5" max="5" width="18.41796875" customWidth="1"/>
+    <col min="6" max="6" width="10.9453125" customWidth="1"/>
+    <col min="7" max="7" width="13.7890625" customWidth="1"/>
+    <col min="8" max="8" width="20.3125" customWidth="1"/>
+    <col min="9" max="9" width="24.89453125" customWidth="1"/>
+    <col min="10" max="16383" width="10.9453125" hidden="1"/>
+    <col min="16384" max="16384" width="15" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="12" spans="4:9" x14ac:dyDescent="0.55000000000000004">
@@ -599,6 +604,7 @@
         <v>145596</v>
       </c>
     </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.55000000000000004"/>
     <row r="18" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" t="s">
         <v>4</v>
@@ -706,6 +712,10 @@
         <v>105596</v>
       </c>
     </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.55000000000000004"/>
     <row r="27" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D27" s="1" t="s">
         <v>17</v>
@@ -820,6 +830,7 @@
         <v>34000</v>
       </c>
     </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.55000000000000004"/>
     <row r="33" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" t="s">
         <v>4</v>
@@ -931,6 +942,9 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.55000000000000004"/>
     <row r="41" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="F41" t="s">
         <v>16</v>
@@ -979,8 +993,13 @@
         <v>1.3933010087499302</v>
       </c>
     </row>
+    <row r="45" spans="4:9" ht="9.3000000000000007" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;CGewinn Verlustaufteilung
+</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>